--- a/submission/summary_results.xlsx
+++ b/submission/summary_results.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio.penta/Documents/workspace/jupyter/santander/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B1E22-BF7C-984D-AC67-88410746828E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AC5F2-1328-1A47-A7DD-D80003A56AF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{051E56F2-4450-AC4C-BB74-B4FD6B542166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Strategy 15</t>
   </si>
@@ -74,12 +81,18 @@
   <si>
     <t>Strategy 8</t>
   </si>
+  <si>
+    <t>Strategy 6</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,11 +107,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
     </font>
     <font>
       <sz val="14"/>
@@ -127,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -149,19 +156,968 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Strategy 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Strategy 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strategy 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Strategy 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strategy 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Strategy 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Strategy 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Strategy 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Strategy 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Strategy 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Strategy 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Strategy 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Strategy 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Strategy 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Strategy 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.55443100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.677647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70181899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69609200000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70021900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68901900000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.747668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78939300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79795400000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78577300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79760399999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79665300000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79867900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80910400000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81537800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E39-E747-B726-420FE02761F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1996375119"/>
+        <c:axId val="1996377887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1996375119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996377887"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1996377887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996375119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>84984</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -203,15 +1159,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>24063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -249,6 +1205,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F3798D-FF44-734F-909C-17342071310C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -551,182 +1543,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10D6AB-F886-3549-8D30-DB9707B406BB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.55349099999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.55443100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.66820199999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.677647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.68126100000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.70181899999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.67908000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.69609200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.67879900000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.70021900000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.67486299999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.68901900000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.73604400000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.747668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.77648200000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.78939300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.78731499999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.79795400000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.77218699999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.78577300000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.787466</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.79760399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.78366800000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.79665300000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.77941099999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.79867900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.79226399999999997</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.80910400000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C16" s="1">
         <v>0.80282100000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D16" s="1">
         <v>0.81537800000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.79226399999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.80910400000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.77941099999999996</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.79867900000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.78366800000000003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.79665300000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.787466</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.79760399999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.77218699999999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.78577300000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.78731499999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.79795400000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.77648200000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.78939300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.73604400000000003</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.747668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.67486299999999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.68901900000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.67879900000000004</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.70021900000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.67908000000000002</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.69609200000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.68126100000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.70181899999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.66820199999999996</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.677647</v>
-      </c>
+    <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
